--- a/src/main/resources/data/SanmyalaExcel.xlsx
+++ b/src/main/resources/data/SanmyalaExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohit/Desktop/UI_Automation_Service/UI_Library/sanmyala_ui_demo/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A65EB2-9DEB-6D41-89F7-3DDE6ED238CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEB803-F318-5547-999E-4B67A81723D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{83742861-E685-5245-8C81-9976C17D84C6}"/>
   </bookViews>

--- a/src/main/resources/data/SanmyalaExcel.xlsx
+++ b/src/main/resources/data/SanmyalaExcel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohit/Desktop/UI_Automation_Service/UI_Library/sanmyala_ui_demo/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEB803-F318-5547-999E-4B67A81723D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB0ACF-A567-D847-9887-C3E87A9D26B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{83742861-E685-5245-8C81-9976C17D84C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop Groceries" sheetId="1" r:id="rId1"/>
+    <sheet name="SHOP_TSHIRTS" sheetId="1" r:id="rId1"/>
+    <sheet name="SHOP_TEES" sheetId="3" r:id="rId2"/>
+    <sheet name="SHOP_ACCESSORIES" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="39">
   <si>
     <t>1</t>
   </si>
@@ -41,9 +43,6 @@
     <t>Transaction</t>
   </si>
   <si>
-    <t>Shop Groceries</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -92,14 +91,74 @@
     <t>scenarioId</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Apparel_with_Single_qty</t>
+  </si>
+  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>SHOP_TSHIRTS</t>
+  </si>
+  <si>
+    <t>SHOP_ACCESSORIES</t>
+  </si>
+  <si>
+    <t>SHOP_TEES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +170,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7199EEBE-C4FA-E741-A642-3DB7B5488F98}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +532,7 @@
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -475,31 +540,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -507,25 +572,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -533,39 +598,628 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9BCA2869-34DD-9342-A10B-B6A3114007F2}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{F4FBBD6A-29A8-294C-A439-BBF12C1FAB49}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{C0B20DBF-B750-1347-8BCB-3DE969C93DBF}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{2FE8BDA2-6D95-E741-8469-BD9345202B8B}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{C9EF64F5-56E5-9A4D-BB29-A0519AA1D7D9}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{9024D343-2310-534F-BA8B-CE1E71B597EC}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{73F33CD3-2008-2A42-A352-F0F37E6CE9D7}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{01041A8C-31EC-FF40-8368-34A4813CE62E}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{07261AC7-33D8-D548-8A9B-F72287B0ED55}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{E3CB48E4-6471-0E42-B683-35871C270323}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5576FE40-6EB7-4344-A660-63E6630A9169}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{246C7448-83B4-084E-9669-F52DEC3BAADA}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{C7D86E28-11DA-D248-B948-7F3A28ABD805}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{1B5E5311-4D97-E342-9C61-0468F313E2E1}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{4D3F3B64-9039-F948-B81E-5BAD79CBFEBE}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{EA574D2F-8006-1B4E-84EA-2432C7E78ADE}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{57272582-ED5E-4140-B82E-8E90114FC8EF}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{2544CDD7-A338-1346-AAD6-2542CE50B97E}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{79B4518E-5703-FE42-B3A4-A162EEEAF8D7}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{80F0A6E1-C76B-B84E-82DF-8A36A7F5DBAA}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{90797CF2-EFBC-6A4E-BD74-1735C1BADB0B}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{5B0E5FF0-376E-2C47-A42B-AE4427F06897}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{1282BD15-9F99-EF41-9C20-2A24A90D9D3A}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{8045783E-CBBB-3349-AFD0-10919CE66A98}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{7A919347-E07A-934A-9774-F6202A0557CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E8E12C-39B0-6E4C-AB43-52A80A9FCF6E}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A93F7A13-1363-6342-B569-C6956FCFE813}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{42345030-9ADF-134D-B0B2-28545CB0194E}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{06DF04AB-B89A-BF4A-9263-5F7EF6617F69}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{5094FCCB-F82A-F34D-8774-EE41DAF034FA}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{0050BBEA-D7A7-1E48-97CD-A77F9D56A0DD}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{FF983284-B782-4C4D-A7C9-D27B3AA676C0}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{F519DE74-984E-FE49-802F-D6CEA89791F1}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{6D320EF8-4878-5949-AAAC-17D99ECF4D0B}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{B24EB9CF-00E8-EF4E-B8EC-3F54DA2BD9D6}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{9F100824-63EF-534C-AD22-F9E657674583}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{1532EE6F-4173-1940-AAC2-0D6AA273258E}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{42B86609-CA08-D546-B190-83ECC10DE971}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
